--- a/story/Main Story and Others 主线剧情等/guide 导航文字/l1-1/0_building_control.xlsx
+++ b/story/Main Story and Others 主线剧情等/guide 导航文字/l1-1/0_building_control.xlsx
@@ -52,11 +52,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_closure")] Doctor, we’ve obtained enough materials to upgrade our Headquarters Control Center.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_closure")] It’s time to get to work.
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_closure")] Doctor, we've obtained enough materials to upgrade our Headquarters Control Center.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_closure")] It's time to get to work.
 </t>
   </si>
   <si>
